--- a/biology/Médecine/Hôpital_San_Filippo_Neri/Hôpital_San_Filippo_Neri.xlsx
+++ b/biology/Médecine/Hôpital_San_Filippo_Neri/Hôpital_San_Filippo_Neri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Filippo_Neri</t>
+          <t>Hôpital_San_Filippo_Neri</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Hôpital San Filippo Neri est un hôpital public italien qui fait partie de l'Unité Sanitaire Locale (ASL) « Rome 1 ». Il est situé le long de la voie ferrée FS Rome-Viterbo. C'est un établissement hospitalier desservant le secteur nord-ouest de la capitale italienne avec un service ambulatoire régulier, chirurgie ambulatoire de jour[1] et service d'urgences ambulatoire[2].
+L'Hôpital San Filippo Neri est un hôpital public italien qui fait partie de l'Unité Sanitaire Locale (ASL) « Rome 1 ». Il est situé le long de la voie ferrée FS Rome-Viterbo. C'est un établissement hospitalier desservant le secteur nord-ouest de la capitale italienne avec un service ambulatoire régulier, chirurgie ambulatoire de jour et service d'urgences ambulatoire.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Filippo_Neri</t>
+          <t>Hôpital_San_Filippo_Neri</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital San Filippo Neri a été construit en 1940 puis agrandi dans les années soixante.
 Depuis le 1er juillet 1994, l'hôpital est devenu un « Hôpital d'importance nationale et hautement spécialisé », à la suite des reconnaissances obtenues dans les activités hautement spécialisées telles que : la neurochirurgie et lz neurologie intensive, la cardiologie, la chirurgie cardiaque et l'oncologie. Conformément à l'art. 6 de la Loi Régionale N° 18 du 16 juin 1994, l'hôpital est devenu un établissement acquérant ainsi le statut juridique d'établissement public autonome. Il a pris le nom de Complexe Hospitalier San Filippo Neri d'importance nationale et hautement spécialisé.
